--- a/PCB/V3.1/SolarWall V3 Test/BOM/BOM_PartType-SolarWall V3 Test.xlsx
+++ b/PCB/V3.1/SolarWall V3 Test/BOM/BOM_PartType-SolarWall V3 Test.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB2AC58E-DA2D-4DA0-AD50-62DE07852BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\SolarWall\PCB\V3.1\SolarWall V3 Test\BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB5D27D-AFEB-4F20-BD7C-09884B69F566}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{89CF9014-D8ED-4A49-90AE-5C9C5035AB57}"/>
   </bookViews>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="187">
   <si>
     <t>Comment</t>
   </si>
@@ -177,9 +182,6 @@
     <t>CAPC320X160X100L50L</t>
   </si>
   <si>
-    <t>C1206C334K5RACTU</t>
-  </si>
-  <si>
     <t>CAP CER 0.1UF 50V 10% X7R 0805</t>
   </si>
   <si>
@@ -306,9 +308,6 @@
     <t>PCB-5orkzbd4xoofe4n7g14x-1</t>
   </si>
   <si>
-    <t>IRFR5305TRPBF</t>
-  </si>
-  <si>
     <t>100k</t>
   </si>
   <si>
@@ -574,6 +573,24 @@
   </si>
   <si>
     <t>PCB-wxkmxky2o49f0ip7fec3-1</t>
+  </si>
+  <si>
+    <t>GCM21BL81H334KA56L</t>
+  </si>
+  <si>
+    <t>IRLR110TRPBF</t>
+  </si>
+  <si>
+    <t>LM321MFX</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -609,7 +626,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -632,17 +649,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,16 +998,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891D4125-C39E-4B42-B89E-4AABF44B2ACE}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="18" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" customWidth="1"/>
+    <col min="3" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1050,11 @@
       <c r="F2" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1025,8 +1073,11 @@
       <c r="F3" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1045,8 +1096,11 @@
       <c r="F4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1065,8 +1119,14 @@
       <c r="F5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1085,8 +1145,11 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1105,8 +1168,11 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1125,8 +1191,11 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1145,8 +1214,11 @@
       <c r="F9" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1165,8 +1237,11 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1180,610 +1255,706 @@
         <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F22" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F26" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F27" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F28" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F30" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="D33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F33" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="F38" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="E39" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F41" s="3">
         <v>1</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/PCB/V3.1/SolarWall V3 Test/BOM/BOM_PartType-SolarWall V3 Test.xlsx
+++ b/PCB/V3.1/SolarWall V3 Test/BOM/BOM_PartType-SolarWall V3 Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\SolarWall\PCB\V3.1\SolarWall V3 Test\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB5D27D-AFEB-4F20-BD7C-09884B69F566}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB38C54F-C49A-42E3-9015-FCFBC7F4129A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{89CF9014-D8ED-4A49-90AE-5C9C5035AB57}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{671177A2-8C0A-413E-AB53-8393A4EB4B77}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-SolarWall V3 Test" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="185">
   <si>
     <t>Comment</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>CMP-e1e12c58bed83e26-3</t>
+    <t>Würth Elektronik 691137710002</t>
   </si>
   <si>
     <t>Series 1377 - 5.00 mm Horizontal Entry with Pressure Clamp WR-TBL, 2 pin</t>
@@ -59,213 +59,222 @@
     <t>+ B -, GND</t>
   </si>
   <si>
+    <t>PCB-g2bho722h4u85oltew9j-1</t>
+  </si>
+  <si>
+    <t>691137710002</t>
+  </si>
+  <si>
+    <t>BYPASS</t>
+  </si>
+  <si>
+    <t>KEYSTONE   5002   Series:-</t>
+  </si>
+  <si>
+    <t>5V, 12V, B5, B5 + 5V, BYPASS, BYPASS CURR, CURR SENSE, GND, LIGHT SENSE, THERM MUX OUT, VOLT SENSE</t>
+  </si>
+  <si>
+    <t>PCB-6rf74k5lqbtmzvabbodp-1</t>
+  </si>
+  <si>
+    <t>5002</t>
+  </si>
+  <si>
+    <t>TE Connectivity 5-146281-2</t>
+  </si>
+  <si>
+    <t>Header; Breakaway; 0.100 in.; PC Board; Single; 2; 0.025 in.; 0.12 in.; 3 A</t>
+  </si>
+  <si>
+    <t>5V ENABLE, EXTERNAL PWR, VIN ENABLE</t>
+  </si>
+  <si>
+    <t>PCB-angfy19quc8nc8nc7d0m-1</t>
+  </si>
+  <si>
+    <t>5-146281-2</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>2.0x1.2mm Low Current Green</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>PCB-dnef8j46jbprf6b6erh1-1</t>
+  </si>
+  <si>
+    <t>APT2012LZGCK</t>
+  </si>
+  <si>
+    <t>Keystone Electronics 5002</t>
+  </si>
+  <si>
+    <t>B4, GATE</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>2.0x1.2mm Low Current Red</t>
+  </si>
+  <si>
+    <t>APT2012LSECK/J3-PRV</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>Cap Ceramic 4.7uF 6.3V X5R 10% SMD 0603 85°C Paper T/R</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>PCB-aplbgutxmqgu2769pozc-1</t>
+  </si>
+  <si>
+    <t>JMK107BJ475KA-T</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>WX Series 10 uF 16 V 85°C Ø3 x 5.4 mm SMT Chip Aluminum Electrolytic Cap</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>3mm Dia SMD Cap</t>
+  </si>
+  <si>
+    <t>UWX1C100MCL2GB</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>0603 0.1 uF 25 V ±10 % Tolerance X7R SMT Multilayer Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>C3, C8</t>
+  </si>
+  <si>
+    <t>PCB-fvggjhlky4an5us2gvhu-1</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R8BB104</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>Cap Ceramic 1uF 50V X5R 10% SMD 0805 85°C Embossed T/R</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>PCB-byo5il7f8wp7b7f3c12u-1</t>
+  </si>
+  <si>
+    <t>UMK212BJ105KG-T</t>
+  </si>
+  <si>
+    <t>330nF</t>
+  </si>
+  <si>
+    <t>CAP CER 0.33UF 50V 10% X8L 0805</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>CAPC2013X140X45LL15T25</t>
+  </si>
+  <si>
+    <t>GCM21BL81H334KA56L</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 50V 10% X7R 0805</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>CAPC2013X94X50LL20T25</t>
+  </si>
+  <si>
+    <t>08055C104KAZ2A</t>
+  </si>
+  <si>
+    <t>0.18uF</t>
+  </si>
+  <si>
+    <t>CAP CER 0.18UF 10V 10% X7R 0603</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>CAPC1608X90X35LL15T15</t>
+  </si>
+  <si>
+    <t>0603ZC184KAT2A</t>
+  </si>
+  <si>
+    <t>GRN</t>
+  </si>
+  <si>
+    <t>CURR., VOLT SENSE</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>Res Cermet Trimmer 2M Ohm 10% 1/2W 25(Elec)Turn 2.19mm (9.53 X 4.83 X 11.55mm) Pin Thru-Hole Tube</t>
+  </si>
+  <si>
+    <t>GAIN ADJ</t>
+  </si>
+  <si>
+    <t>PCB-hse4uua1fjcnkyhyx9qc-1</t>
+  </si>
+  <si>
+    <t>3296W-1-205LF</t>
+  </si>
+  <si>
+    <t>10µH</t>
+  </si>
+  <si>
+    <t>Inductor Power Chip Shielded Wirewound 10uH 20% 1MHz Ferrite 1.2A 0.288Ohm DCR 1212 T/R</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>PCB-vewda3j484q4i4ft994d-1</t>
+  </si>
+  <si>
+    <t>LQH3NPN100MJRL</t>
+  </si>
+  <si>
+    <t>ARDUINO NANO 3.0</t>
+  </si>
+  <si>
+    <t>Arduino Nano 3.0</t>
+  </si>
+  <si>
+    <t>NANO</t>
+  </si>
+  <si>
     <t>PCBComponent_1</t>
   </si>
   <si>
-    <t>BYPASS</t>
-  </si>
-  <si>
-    <t>KEYSTONE   5002   Series:-</t>
-  </si>
-  <si>
-    <t>5V, 12V, B5, B5 + 5V, BYPASS, BYPASS CURR, CURR SENSE, GND, LIGHT SENSE, THERM MUX OUT, VOLT SENSE</t>
-  </si>
-  <si>
-    <t>PCB-6rf74k5lqbtmzvabbodp-1</t>
-  </si>
-  <si>
-    <t>5002</t>
-  </si>
-  <si>
-    <t>TE Connectivity 5-146281-2</t>
-  </si>
-  <si>
-    <t>Header; Breakaway; 0.100 in.; PC Board; Single; 2; 0.025 in.; 0.12 in.; 3 A</t>
-  </si>
-  <si>
-    <t>5V ENABLE, VIN ENABLE</t>
-  </si>
-  <si>
-    <t>PCB-angfy19quc8nc8nc7d0m-1</t>
-  </si>
-  <si>
-    <t>5-146281-2</t>
-  </si>
-  <si>
-    <t>Keystone Electronics 5002</t>
-  </si>
-  <si>
-    <t>B4, GATE</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>2.0x1.2mm Low Current Red</t>
-  </si>
-  <si>
-    <t>PCB-dnef8j46jbprf6b6erh1-1</t>
-  </si>
-  <si>
-    <t>APT2012LSECK/J3-PRV</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>Cap Ceramic 4.7uF 6.3V X5R 10% SMD 0603 85°C Paper T/R</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>PCB-aplbgutxmqgu2769pozc-1</t>
-  </si>
-  <si>
-    <t>JMK107BJ475KA-T</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>WX Series 10 uF 16 V 85°C Ø3 x 5.4 mm SMT Chip Aluminum Electrolytic Cap</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>3mm Dia SMD Cap</t>
-  </si>
-  <si>
-    <t>UWX1C100MCL2GB</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>0603 0.1 uF 25 V ±10 % Tolerance X7R SMT Multilayer Ceramic Capacitor</t>
-  </si>
-  <si>
-    <t>C3, C8</t>
-  </si>
-  <si>
-    <t>PCB-fvggjhlky4an5us2gvhu-1</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R8BB104</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>Cap Ceramic 1uF 50V X5R 10% SMD 0805 85°C Embossed T/R</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>PCB-byo5il7f8wp7b7f3c12u-1</t>
-  </si>
-  <si>
-    <t>UMK212BJ105KG-T</t>
-  </si>
-  <si>
-    <t>33nF</t>
-  </si>
-  <si>
-    <t>Capacitor; Ceramic; Cap; .330uf ; Tol+10%; Smd; Vol-Rtg 50v; X7r</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>CAPC320X160X100L50L</t>
-  </si>
-  <si>
-    <t>CAP CER 0.1UF 50V 10% X7R 0805</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>CAPC2013X94X50LL20T25</t>
-  </si>
-  <si>
-    <t>08055C104KAZ2A</t>
-  </si>
-  <si>
-    <t>0.18uF</t>
-  </si>
-  <si>
-    <t>CAP CER 0.18UF 10V 10% X7R 0603</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>CAPC1608X90X35LL15T15</t>
-  </si>
-  <si>
-    <t>0603ZC184KAT2A</t>
-  </si>
-  <si>
-    <t>BLUE</t>
-  </si>
-  <si>
-    <t>2.0x1.2mm Low Current Green</t>
-  </si>
-  <si>
-    <t>CURR SENSE</t>
-  </si>
-  <si>
-    <t>APT2012LZGCK</t>
-  </si>
-  <si>
-    <t>GRN</t>
-  </si>
-  <si>
-    <t>CURR., VOLT SENSE</t>
-  </si>
-  <si>
-    <t>2M</t>
-  </si>
-  <si>
-    <t>Res Cermet Trimmer 2M Ohm 10% 1/2W 25(Elec)Turn 2.19mm (9.53 X 4.83 X 11.55mm) Pin Thru-Hole Tube</t>
-  </si>
-  <si>
-    <t>GAIN ADJ</t>
-  </si>
-  <si>
-    <t>PCB-hse4uua1fjcnkyhyx9qc-1</t>
-  </si>
-  <si>
-    <t>3296W-1-205LF</t>
-  </si>
-  <si>
-    <t>10µH</t>
-  </si>
-  <si>
-    <t>Inductor Power Chip Shielded Wirewound 10uH 20% 1MHz Ferrite 1.2A 0.288Ohm DCR 1212 T/R</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>PCB-vewda3j484q4i4ft994d-1</t>
-  </si>
-  <si>
-    <t>LQH3NPN100MJRL</t>
-  </si>
-  <si>
-    <t>ARDUINO NANO 3.0</t>
-  </si>
-  <si>
-    <t>Arduino Nano 3.0</t>
-  </si>
-  <si>
-    <t>NANO</t>
-  </si>
-  <si>
     <t>Pin 1 to GND</t>
   </si>
   <si>
@@ -308,6 +317,9 @@
     <t>PCB-5orkzbd4xoofe4n7g14x-1</t>
   </si>
   <si>
+    <t>IRFR5305TRPBF</t>
+  </si>
+  <si>
     <t>100k</t>
   </si>
   <si>
@@ -482,16 +494,16 @@
     <t>SHUNT LS</t>
   </si>
   <si>
-    <t>Mates with 101-106</t>
-  </si>
-  <si>
-    <t>Conn Header r/a 10pos Gold</t>
+    <t>Shrouded IDC, 10 way</t>
+  </si>
+  <si>
+    <t>Conn Socket Strip SKT 10 POS 2.54mm Solder RA Thru-Hole</t>
   </si>
   <si>
     <t>THERM</t>
   </si>
   <si>
-    <t>PCB-jsbl9yorbtzkuwlvxtky-1</t>
+    <t>PCB-6gyt9jg7hir1kur10t9z-1</t>
   </si>
   <si>
     <t>302-R101</t>
@@ -573,24 +585,6 @@
   </si>
   <si>
     <t>PCB-wxkmxky2o49f0ip7fec3-1</t>
-  </si>
-  <si>
-    <t>GCM21BL81H334KA56L</t>
-  </si>
-  <si>
-    <t>IRLR110TRPBF</t>
-  </si>
-  <si>
-    <t>LM321MFX</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -626,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -649,41 +643,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,21 +967,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891D4125-C39E-4B42-B89E-4AABF44B2ACE}">
-  <dimension ref="A1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C4D9CB-FD09-4897-92B6-0CB641030D71}">
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="57.28515625" customWidth="1"/>
+    <col min="2" max="2" width="127" customWidth="1"/>
     <col min="3" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1045,122 +1015,104 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3">
         <v>11</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -1168,11 +1120,8 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1191,11 +1140,8 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1212,13 +1158,10 @@
         <v>40</v>
       </c>
       <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1235,13 +1178,10 @@
         <v>45</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1255,706 +1195,610 @@
         <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>181</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>6</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F26" s="3">
         <v>2</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F30" s="3">
         <v>2</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F33" s="3">
         <v>5</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F35" s="3">
         <v>1</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="F38" s="3">
         <v>2</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F39" s="3">
         <v>1</v>
       </c>
-      <c r="H39" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F41" s="3">
         <v>1</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
